--- a/spec/support/files/2016_analyzed_mesh_terms.xlsx
+++ b/spec/support/files/2016_analyzed_mesh_terms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="-80" windowWidth="21520" windowHeight="10960"/>
+    <workbookView xWindow="1360" yWindow="-80" windowWidth="24800" windowHeight="16100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t>E02.870.500</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -160,6 +160,20 @@
   </si>
   <si>
     <t>A Pulmonary Term</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>disorders of environmental origin</t>
+  </si>
+  <si>
+    <t>C21.866.915.300.200.150</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brain Concussion</t>
+  </si>
+  <si>
+    <t>C21</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -321,13 +335,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -692,7 +706,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -700,7 +714,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
@@ -1035,7 +1048,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1043,13 +1056,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
@@ -1077,27 +1093,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" s="5" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1350,6 +1366,32 @@
         <v>8</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>8</v>
       </c>
     </row>
